--- a/biology/Médecine/Research_and_action_targeting_emerging_infectious_diseases/Research_and_action_targeting_emerging_infectious_diseases.xlsx
+++ b/biology/Médecine/Research_and_action_targeting_emerging_infectious_diseases/Research_and_action_targeting_emerging_infectious_diseases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-REsearch and ACTion targeting emerging infectious diseases (REACTing)  est un réseau collaboratif pluridisciplinaire d'institutions de recherche françaises travaillant sur les maladies infectieuses émergentes, qui vise à préparer et répondre aux épidémies. Il est coordonné par l’INSERM  piloté par l'alliance Aviesan[1].
+REsearch and ACTion targeting emerging infectious diseases (REACTing)  est un réseau collaboratif pluridisciplinaire d'institutions de recherche françaises travaillant sur les maladies infectieuses émergentes, qui vise à préparer et répondre aux épidémies. Il est coordonné par l’INSERM  piloté par l'alliance Aviesan.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Membres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Laëtitia Atlani-Duault.
 Yazdan Yazdanpanah.
@@ -544,11 +558,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il rassemble depuis 2013 des groupes de recherche, institutions et laboratoires français afin de préparer et de faire face aux menaces infectieuses émergentes imprévisibles[2].
-Il a été créé par Yves Lévy et Jean-François Delfraissy[3].
-En 2021, une nouvelle agence consacrée aux maladies infectieuses émergentes est issue du rapprochement de l’Agence nationale de recherche sur le sida et les hépatites virales avec le consortium REACTing[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il rassemble depuis 2013 des groupes de recherche, institutions et laboratoires français afin de préparer et de faire face aux menaces infectieuses émergentes imprévisibles.
+Il a été créé par Yves Lévy et Jean-François Delfraissy.
+En 2021, une nouvelle agence consacrée aux maladies infectieuses émergentes est issue du rapprochement de l’Agence nationale de recherche sur le sida et les hépatites virales avec le consortium REACTing.
 </t>
         </is>
       </c>
@@ -577,16 +593,18 @@
           <t>Discovery</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">REACTing coordonne la recherche sur le SARS-CoV-2, en lien avec 56 hôpitaux en France[5]. En 2020, il pilote l'essai clinique Discovery[6], réplique de Solidarity Trial sur le plan international[7] et de Recovery en Grande-Bretagne[8].
-Cet essai consiste à soigner des patients en choisissant de manière aléatoire une stratégie parmi les cinq suivantes[9] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REACTing coordonne la recherche sur le SARS-CoV-2, en lien avec 56 hôpitaux en France. En 2020, il pilote l'essai clinique Discovery, réplique de Solidarity Trial sur le plan international et de Recovery en Grande-Bretagne.
+Cet essai consiste à soigner des patients en choisissant de manière aléatoire une stratégie parmi les cinq suivantes :
 soins standards optimaux ;
 soins standards optimaux plus remdesivir ;
 soins standards optimaux plus lopinavir et ritonavir ;
 soins standards optimaux plus lopinavir, ritonavir et interféron bêta ;
 soins standards optimaux plus hydroxychloroquine.
-L'objectif de cet essai qui, selon le Pr Yazdanpanah, est de trouver un traitement pour éviter les décès et les placements en réanimation, rencontrent toutefois des difficultés[10],[11].
+L'objectif de cet essai qui, selon le Pr Yazdanpanah, est de trouver un traitement pour éviter les décès et les placements en réanimation, rencontrent toutefois des difficultés,.
 </t>
         </is>
       </c>
@@ -615,11 +633,13 @@
           <t>Aphro-Cov</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lancé fin mars 2020, Aphro-Cov est un dispositif visant à améliorer la veille sanitaire et la prise en charge des cas suspects de Covid-19 dans 5 pays d’Afrique (Burkina-Faso, Côte d’Ivoire, Gabon, Mali, Sénégal)[12]. Ce dispositif est soutenu par l'Agence française de développement[13].
-Dans un continent relativement épargné, Aphro-Cov anticipait une catastrophe sanitaire si l’épidémie venait à poursuivre sa trajectoire[14].
-Par ailleurs, il est une réponse à la proposition faite en avril 2020, par les scientifiques français Camille Locht et Jean-Paul Mira, de tester certains des traitements et vaccins en cours de développement sur le continent africain[18],[19] comme le font d'autres laboratoires[20],[21]. Ce dispositif exclut explicitement toute vaccination[22] et a pour objectif que les services hospitaliers de cinq pays africains soient mieux à même d'accueillir les patients et de fournir un diagnostic efficace pour lutter contre l’épidémie[23].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lancé fin mars 2020, Aphro-Cov est un dispositif visant à améliorer la veille sanitaire et la prise en charge des cas suspects de Covid-19 dans 5 pays d’Afrique (Burkina-Faso, Côte d’Ivoire, Gabon, Mali, Sénégal). Ce dispositif est soutenu par l'Agence française de développement.
+Dans un continent relativement épargné, Aphro-Cov anticipait une catastrophe sanitaire si l’épidémie venait à poursuivre sa trajectoire.
+Par ailleurs, il est une réponse à la proposition faite en avril 2020, par les scientifiques français Camille Locht et Jean-Paul Mira, de tester certains des traitements et vaccins en cours de développement sur le continent africain, comme le font d'autres laboratoires,. Ce dispositif exclut explicitement toute vaccination et a pour objectif que les services hospitaliers de cinq pays africains soient mieux à même d'accueillir les patients et de fournir un diagnostic efficace pour lutter contre l’épidémie.
 </t>
         </is>
       </c>
